--- a/submissions/route_optimization_feedback.xlsx
+++ b/submissions/route_optimization_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,10 +586,8 @@
           <t>BARR</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2525</t>
-        </is>
+      <c r="G2" t="n">
+        <v>2525</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -614,10 +612,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="O2" t="n">
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -650,6 +646,104 @@
       <c r="X2" t="inlineStr">
         <is>
           <t>2026-01-13T23:45:30.467938+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NDIAYE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Assia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>amadousellendiaye@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BARR</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>I don't know</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Entire route</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>15–30 min</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Routing</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Unnecessary detour</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>rof_20260115T153924.859157Z</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2026-01-15T15:39:24.859249+00:00</t>
         </is>
       </c>
     </row>
